--- a/Coverage Survey/Burkina Faso/Oncho/2024/oct 2024/bf_oncho_cdticov_2410_1_village.xlsx
+++ b/Coverage Survey/Burkina Faso/Oncho/2024/oct 2024/bf_oncho_cdticov_2410_1_village.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Burkina Faso\Oncho\2024\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDE4F47-56DE-47B3-8E57-169DDF788222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E6FBF2-AC31-44E8-AD41-587CED9BC2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +815,7 @@
     <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
